--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="前台" sheetId="1" r:id="rId1"/>
+    <sheet name="后台" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>详情页作者、推荐头像可点击，到个人主页</t>
   </si>
@@ -99,6 +100,278 @@
     <t>完成度</t>
     <rPh sb="0" eb="1">
       <t>wan'ch'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页上面放几个豆腐块：专家管理、小秘书、提现管理（边角显示待处理的个数）；下面是数据显示窗口，显示目前登录人数、用户行业分布图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员分为“VIP会员”“高级会员”“普通会员”，每个单独一个菜单管理，每个VIP和高级会员可以指派给特定后台管理账户，该账户登录后只能看到被指派的会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级管理员可开通不同账号，可根据功能模块设定不同权限(可任意勾选不同的二级菜单)</t>
+    <rPh sb="27" eb="28">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>r'yi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>gou'xuan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bu't</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>d</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>er'j</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>cai'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题可编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用／停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加启用／停用功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加系列标签（只有活动会用到），</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加筛选功能，增加按照系列、地点筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否众筹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加筛选功能，增加按照行业筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签只有行业投资，没有资金业务和其他，所以只要一级标签就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者可以输入，并通过输入筛选，类似广告管理中的专家推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动和资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加复制链接的按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求对接管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了融资管理，增加需求管理，字段包括：行业、标题、内容、需求方、跟进人、进度描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加行业标签（行业投资），将融资规模、融资阶段设定为标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过行业、融资规模、融资阶段进行筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加上传文件功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加跟进人和进度描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个招聘信息包括：招聘公司、负责人、联系方式、分成方式、行业标签、招聘职位、薪资范围、工作地点、招聘简介；每个招聘信息可以添加多个应聘人信息，应聘人信息包括姓名、出生年月、电话、邮箱、地址、教育经历、工作经历，期望薪水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯和活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每篇文章点进去的评论查看，设计成盖楼样式，可追随每一条回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小秘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户数，曝光率、评论数、点赞数和转发率（活动、资讯），活跃用户数，专家数，活动报名人数，可以有数量、时间、行业三个维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小秘书归属到消息中心下面，现有消息中心隐藏掉，相关的消息提醒会在对应功能提示，暂时不需要单独消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能调整</t>
+    <rPh sb="0" eb="1">
+      <t>g'n</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划时间</t>
+    <rPh sb="0" eb="1">
+      <t>ji'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +393,14 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -144,13 +425,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,67 +735,81 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
@@ -518,41 +817,388 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="92.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="前台" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>详情页作者、推荐头像可点击，到个人主页</t>
   </si>
@@ -373,14 +368,18 @@
     <rPh sb="2" eb="3">
       <t>shi'j</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,15 +426,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -529,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -706,27 +705,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -734,114 +733,135 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -858,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -892,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -902,25 +922,25 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45.95" customHeight="1">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -934,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -944,11 +964,11 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -962,7 +982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -976,7 +996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="24" customHeight="1">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -990,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="24" customHeight="1">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1004,7 +1024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1018,7 +1038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1032,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1088,7 +1108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1102,7 +1122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="24" customHeight="1">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="24" customHeight="1">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1130,21 +1150,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="65.099999999999994" customHeight="1">
       <c r="A19" t="s">
         <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="24" customHeight="1">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="24" customHeight="1">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1172,7 +1192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="36" customHeight="1">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1183,7 +1203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="24" customHeight="1">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1193,7 +1213,7 @@
       <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前台" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+  <si>
+    <t>计划时间</t>
+  </si>
+  <si>
+    <t>完成度</t>
+  </si>
+  <si>
+    <t>功能调整</t>
+  </si>
+  <si>
+    <t>活动过期不可报名（加过期时间字段）</t>
+  </si>
   <si>
     <t>详情页作者、推荐头像可点击，到个人主页</t>
   </si>
@@ -53,345 +60,213 @@
   </si>
   <si>
     <t>隐式登录</t>
-  </si>
-  <si>
-    <t>资讯首页</t>
-  </si>
-  <si>
-    <t>活动首页</t>
-  </si>
-  <si>
-    <t>资讯二级页</t>
-  </si>
-  <si>
-    <t>活动二级页</t>
-  </si>
-  <si>
-    <t>各搜索页</t>
-  </si>
-  <si>
-    <t>整理静态个人中心，未登录就出弹窗，由用户主动点登录</t>
   </si>
   <si>
     <t>页面改静态
 ajax取数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动过期不可报名（加过期时间字段）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划时间</t>
-    <rPh sb="0" eb="1">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成度</t>
-    <rPh sb="0" eb="1">
-      <t>wan'ch'du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯首页</t>
+  </si>
+  <si>
+    <t>活动首页</t>
+  </si>
+  <si>
+    <t>资讯二级页</t>
+  </si>
+  <si>
+    <t>活动二级页</t>
+  </si>
+  <si>
+    <t>各搜索页</t>
+  </si>
+  <si>
+    <t>整理静态个人中心，未登录就出弹窗，由用户主动点登录</t>
   </si>
   <si>
     <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页上面放几个豆腐块：专家管理、小秘书、提现管理（边角显示待处理的个数）；下面是数据显示窗口，显示目前登录人数、用户行业分布图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
     <t>用户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会员分为“VIP会员”“高级会员”“普通会员”，每个单独一个菜单管理，每个VIP和高级会员可以指派给特定后台管理账户，该账户登录后只能看到被指派的会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高级管理员可开通不同账号，可根据功能模块设定不同权限(可任意勾选不同的二级菜单)</t>
-    <rPh sb="27" eb="28">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>r'yi</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>gou'xuan</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>bu't</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>d</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>er'j</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>cai'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>专家管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>话题可编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会员管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>启用／停用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加启用／停用功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活动管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加系列标签（只有活动会用到），</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加筛选功能，增加按照系列、地点筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否众筹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资讯管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加筛选功能，增加按照行业筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签只有行业投资，没有资金业务和其他，所以只要一级标签就好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>作者可以输入，并通过输入筛选，类似广告管理中的专家推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活动和资讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加复制链接的按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求对接管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>除了融资管理，增加需求管理，字段包括：行业、标题、内容、需求方、跟进人、进度描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>融资项目管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加行业标签（行业投资），将融资规模、融资阶段设定为标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可通过行业、融资规模、融资阶段进行筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上传文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加上传文件功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加跟进人和进度描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招聘管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每个招聘信息包括：招聘公司、负责人、联系方式、分成方式、行业标签、招聘职位、薪资范围、工作地点、招聘简介；每个招聘信息可以添加多个应聘人信息，应聘人信息包括姓名、出生年月、电话、邮箱、地址、教育经历、工作经历，期望薪水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资讯和活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每篇文章点进去的评论查看，设计成盖楼样式，可追随每一条回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小秘书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册用户数，曝光率、评论数、点赞数和转发率（活动、资讯），活跃用户数，专家数，活动报名人数，可以有数量、时间、行业三个维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消息中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小秘书归属到消息中心下面，现有消息中心隐藏掉，相关的消息提醒会在对应功能提示，暂时不需要单独消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能调整</t>
-    <rPh sb="0" eb="1">
-      <t>g'n</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tiao'zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划时间</t>
-    <rPh sb="0" eb="1">
-      <t>ji'h</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -399,20 +274,356 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -420,33 +631,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -703,258 +1199,234 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="52.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="3:4">
       <c r="C1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:A13"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A2:A13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="92.5" customWidth="1"/>
+    <col min="3" max="3" width="124.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45.95" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="46" customHeight="1" spans="1:4">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -965,10 +1437,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -979,246 +1451,249 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1">
-      <c r="A9" t="s">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="65" customHeight="1" spans="1:4">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:3">
+      <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="12640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="前台" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
+    <sheet name="app" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>计划时间</t>
   </si>
@@ -250,23 +261,86 @@
   </si>
   <si>
     <t>小秘书归属到消息中心下面，现有消息中心隐藏掉，相关的消息提醒会在对应功能提示，暂时不需要单独消息提醒</t>
+  </si>
+  <si>
+    <t>消息推送-单个</t>
+    <rPh sb="0" eb="1">
+      <t>x'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui's</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dan'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送-多个</t>
+    <rPh sb="0" eb="1">
+      <t>x'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui's</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duo'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
+    <rPh sb="0" eb="1">
+      <t>h'cun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从外部打开app</t>
+    <rPh sb="0" eb="1">
+      <t>cong'wai'bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册一半就退出的完善机制</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wan'sh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -278,352 +352,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,251 +375,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -891,58 +393,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1203,21 +663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1233,138 +692,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="124.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1398,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="46" customHeight="1" spans="1:4">
+    <row r="3" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1412,7 +876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1457,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1485,7 +949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1499,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1513,7 +977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1527,7 +991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1541,7 +1005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1555,7 +1019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1569,7 +1033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1583,7 +1047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1597,7 +1061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1611,7 +1075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1625,7 +1089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="65" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1639,7 +1103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1653,7 +1117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1667,7 +1131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="36" customHeight="1" spans="1:3">
+    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1678,7 +1142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1693,7 +1157,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="12640" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前台" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
-    <sheet name="app" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>计划时间</t>
   </si>
@@ -242,7 +231,7 @@
     <t>评论</t>
   </si>
   <si>
-    <t>每篇文章点进去的评论查看，设计成盖楼样式，可追随每一条回复</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>小秘书</t>
@@ -261,86 +250,23 @@
   </si>
   <si>
     <t>小秘书归属到消息中心下面，现有消息中心隐藏掉，相关的消息提醒会在对应功能提示，暂时不需要单独消息提醒</t>
-  </si>
-  <si>
-    <t>消息推送-单个</t>
-    <rPh sb="0" eb="1">
-      <t>x'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tui's</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan'ge</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送-多个</t>
-    <rPh sb="0" eb="1">
-      <t>x'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tui's</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>duo'ge</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存</t>
-    <rPh sb="0" eb="1">
-      <t>h'cun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从外部打开app</t>
-    <rPh sb="0" eb="1">
-      <t>cong'wai'bu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'kai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册一半就退出的完善机制</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'ban</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tui'chu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>d</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wan'sh</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,22 +278,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -375,9 +631,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -393,16 +891,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -663,20 +1203,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="52.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:4">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -692,143 +1233,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="124.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -848,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -861,8 +1397,11 @@
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="3" ht="46" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -875,8 +1414,14 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>7.15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -889,8 +1434,14 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>7.16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -903,8 +1454,11 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -921,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -934,8 +1488,11 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -948,8 +1505,11 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -962,8 +1522,11 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -976,8 +1539,11 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -990,8 +1556,11 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1004,8 +1573,11 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1018,8 +1590,11 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -1032,8 +1607,11 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1046,8 +1624,11 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1060,8 +1641,11 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1074,8 +1658,11 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1088,8 +1675,11 @@
       <c r="D18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="19" ht="65" customHeight="1" spans="1:5">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1102,8 +1692,11 @@
       <c r="D19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1116,8 +1709,11 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1130,8 +1726,11 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1142,7 +1741,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1155,48 +1754,12 @@
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -258,9 +258,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -279,6 +279,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -286,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,14 +344,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -368,6 +367,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -376,6 +390,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -392,35 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -428,6 +421,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,13 +438,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,169 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +629,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,15 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -672,6 +672,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,30 +707,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -729,151 +720,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,8 +1353,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1441,7 +1441,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1454,8 +1454,9 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>7.15</v>
+      <c r="E5"/>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -1509,7 +1510,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1522,8 +1523,9 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9">
-        <v>7.15</v>
+      <c r="E9"/>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -1645,7 +1647,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" customHeight="1" spans="1:6">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1658,8 +1660,9 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17">
-        <v>7.15</v>
+      <c r="E17"/>
+      <c r="F17" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">

--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -279,19 +279,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -322,14 +323,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,11 +399,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,30 +416,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -438,13 +438,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,169 +582,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,11 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,11 +658,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +680,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +706,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,25 +729,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,16 +747,16 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,115 +765,115 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,7 +1353,7 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1454,7 +1454,6 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5"/>
       <c r="F5" s="3">
         <v>1</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1491,6 +1490,9 @@
       </c>
       <c r="E7">
         <v>7.15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
@@ -1523,12 +1525,11 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9"/>
       <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1543,6 +1544,9 @@
       </c>
       <c r="E10">
         <v>7.15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
@@ -1660,7 +1664,6 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>

--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前台" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -279,6 +279,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -287,6 +294,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +345,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -315,15 +382,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,21 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -359,75 +428,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +629,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -647,6 +671,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -658,9 +697,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,198 +723,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,8 +1353,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1398,7 +1398,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>7.16</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="3" ht="46" customHeight="1" spans="1:6">
@@ -1415,7 +1415,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="F3" s="3">
         <v>0.8</v>
@@ -1435,7 +1435,7 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>7.16</v>
+        <v>7.14</v>
       </c>
       <c r="F4" s="3">
         <v>0.8</v>
@@ -1489,13 +1489,13 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1509,7 +1509,10 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>7.15</v>
+        <v>7.14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -1543,13 +1546,13 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1563,7 +1566,10 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>7.15</v>
+        <v>7.14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -1614,10 +1620,10 @@
         <v>59</v>
       </c>
       <c r="E14">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1631,7 +1637,10 @@
         <v>59</v>
       </c>
       <c r="E15">
-        <v>7.16</v>
+        <v>7.15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
@@ -1648,7 +1657,7 @@
         <v>59</v>
       </c>
       <c r="E16">
-        <v>7.16</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
@@ -1699,7 +1708,7 @@
         <v>59</v>
       </c>
       <c r="E19">
-        <v>7.16</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
@@ -1716,7 +1725,7 @@
         <v>34</v>
       </c>
       <c r="E20">
-        <v>7.16</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
@@ -1733,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>7.16</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1" spans="1:3">

--- a/src/Doc/0712需求.xlsx
+++ b/src/Doc/0712需求.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28695" windowHeight="12645" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前台" sheetId="1" r:id="rId1"/>
     <sheet name="后台" sheetId="2" r:id="rId2"/>
-    <sheet name="app" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>计划时间</t>
   </si>
@@ -60,6 +54,9 @@
   </si>
   <si>
     <t>活动搜索去掉排序，进入页面搜索框获得焦点</t>
+  </si>
+  <si>
+    <t>小秘书做成类似im的模式展示，后台回复会推送</t>
   </si>
   <si>
     <t>隐式登录</t>
@@ -234,7 +231,7 @@
     <t>评论</t>
   </si>
   <si>
-    <t>每篇文章点进去的评论查看，设计成盖楼样式，可追随每一条回复</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>小秘书</t>
@@ -253,114 +250,23 @@
   </si>
   <si>
     <t>小秘书归属到消息中心下面，现有消息中心隐藏掉，相关的消息提醒会在对应功能提示，暂时不需要单独消息提醒</t>
-  </si>
-  <si>
-    <t>消息推送-单个</t>
-    <rPh sb="0" eb="1">
-      <t>x'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tui's</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dan'ge</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送-多个</t>
-    <rPh sb="0" eb="1">
-      <t>x'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tui's</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>duo'ge</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存</t>
-    <rPh sb="0" eb="1">
-      <t>h'cun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从外部打开app</t>
-    <rPh sb="0" eb="1">
-      <t>cong'wai'bu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'kai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册一半就退出的完善机制</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'ce</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'ban</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tui'chu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>d</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wan'sh</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小秘书做成类似im的模式展示，后台回复会推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -372,30 +278,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -403,18 +631,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,16 +891,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -692,20 +1203,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="52.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="3:4">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -713,198 +1225,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="124.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -913,355 +1384,409 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45.95" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>7.15</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="46" customHeight="1" spans="1:6">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1">
+      <c r="E3">
+        <v>7.14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>7.14</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>7.14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>7.14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>7.14</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>7.14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <v>7.15</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>7.15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" t="s">
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E16">
+        <v>7.15</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" t="s">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1">
-      <c r="A18" t="s">
+      <c r="E18">
+        <v>7.15</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="65" customHeight="1" spans="1:5">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1">
+      <c r="E19">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="36" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="22" ht="36" customHeight="1" spans="1:3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>